--- a/Demo/batch_temporaryworker.xlsx
+++ b/Demo/batch_temporaryworker.xlsx
@@ -4,52 +4,80 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12460"/>
+    <workbookView windowWidth="28800" windowHeight="11860"/>
   </bookViews>
   <sheets>
-    <sheet name="导入数据" sheetId="2" r:id="rId1"/>
+    <sheet name="导入数据说明" sheetId="1" r:id="rId1"/>
+    <sheet name="导入数据" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+  <si>
+    <t>以下为导入字段说明：*代表必填项，字段长度不可超过100位，请严格按照说明进行填写。</t>
+  </si>
+  <si>
+    <t>表头名称</t>
+  </si>
+  <si>
+    <t>填写说明</t>
+  </si>
   <si>
     <t>身份证号码*</t>
   </si>
   <si>
+    <t>必填项</t>
+  </si>
+  <si>
     <t>姓名*</t>
   </si>
   <si>
     <t>性别</t>
   </si>
   <si>
+    <t>选项：男、女、其他</t>
+  </si>
+  <si>
     <t>民族</t>
   </si>
   <si>
     <t>出生日期</t>
   </si>
   <si>
+    <t>请按照2019/01/01日期格式填写</t>
+  </si>
+  <si>
     <t>身份证有效期</t>
   </si>
   <si>
     <t>发证公安局</t>
   </si>
   <si>
+    <t>当前住址</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>紧急联络人姓名</t>
+  </si>
+  <si>
+    <t>紧急联络人手机</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>当前地址</t>
   </si>
   <si>
     <t>联系电话</t>
   </si>
   <si>
-    <t>紧急联络人姓名</t>
-  </si>
-  <si>
     <t>紧急联系人电话</t>
-  </si>
-  <si>
-    <t>备注</t>
   </si>
 </sst>
 </file>
@@ -57,9 +85,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -79,12 +107,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -95,6 +146,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,6 +170,75 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,115 +250,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,31 +272,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,13 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,133 +440,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,6 +481,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -464,30 +519,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,13 +538,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,18 +570,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,152 +583,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,6 +751,18 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1043,10 +1083,129 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="149.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.1" customHeight="1" spans="1:1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="17.1" customHeight="1"/>
+    <row r="3" ht="17.1" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
@@ -1070,40 +1229,40 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12">
